--- a/excel/GUI Automated Testing - Edit Profile.xlsx
+++ b/excel/GUI Automated Testing - Edit Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_EP_AP_001" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>//button[@class='mat-raised-button']</t>
   </si>
   <si>
-    <t>compto</t>
-  </si>
-  <si>
     <t>Verify if the page "Create a new project" is displayed.</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>quit</t>
+  </si>
+  <si>
+    <t>confirm</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
   </sheetPr>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -630,7 +630,7 @@
     <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="12.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="12.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="12.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="12.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -792,7 +792,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="12.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -818,7 +818,7 @@
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="12.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -842,24 +842,24 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="12.75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="12.75">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -876,14 +876,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="12.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -900,14 +900,14 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -916,15 +916,15 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="12.75">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
+      <c r="B11" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>22</v>
@@ -933,7 +933,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -942,24 +942,24 @@
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" ht="12.75">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
+      <c r="B12" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -968,24 +968,24 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="12.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
+      <c r="B13" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" ht="12.75">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1002,19 +1002,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="12.75">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1022,22 +1022,22 @@
         <v>20</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="12.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1045,19 +1045,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>53</v>
-      </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="12.75">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1065,22 +1065,22 @@
         <v>20</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="12.75">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1088,27 +1088,27 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="12.75">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1257,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -1286,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1316,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1333,14 +1333,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1356,14 +1356,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1379,13 +1379,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -1399,13 +1399,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -1416,10 +1416,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1448,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1568,10 +1568,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -1597,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1627,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1644,14 +1644,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1667,14 +1667,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1690,13 +1690,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -1710,16 +1710,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -1733,13 +1733,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -1750,10 +1750,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -1767,14 +1767,14 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1790,14 +1790,14 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1810,17 +1810,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1837,13 +1837,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -1854,10 +1854,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2006,10 +2006,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -2035,7 +2035,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2065,7 +2065,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2082,14 +2082,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2105,14 +2105,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2128,13 +2128,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -2148,16 +2148,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2306,10 +2306,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -2335,7 +2335,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2365,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2382,14 +2382,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2405,14 +2405,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2428,13 +2428,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -2448,16 +2448,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -2471,13 +2471,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -2488,10 +2488,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -2502,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2640,10 +2640,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -2669,7 +2669,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2699,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2716,14 +2716,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2739,14 +2739,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2762,13 +2762,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -2779,7 +2779,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/excel/GUI Automated Testing - Edit Profile.xlsx
+++ b/excel/GUI Automated Testing - Edit Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_EP_AP_001" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="75">
   <si>
     <t>Step</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>confirm</t>
+  </si>
+  <si>
+    <t>refresh1</t>
+  </si>
+  <si>
+    <t>photopicker</t>
   </si>
 </sst>
 </file>
@@ -616,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1119,8 +1125,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>71</v>
       </c>
+      <c r="I21" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1135,10 +1153,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1202,7 +1220,7 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1226,7 +1244,7 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1276,7 +1294,7 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1302,7 +1320,7 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1349,7 +1367,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1372,23 +1390,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -1399,37 +1405,57 @@
         <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="E12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="27">
-        <v>12</v>
-      </c>
-      <c r="B13" s="28" t="s">
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>71</v>
       </c>
     </row>

--- a/excel/GUI Automated Testing - Edit Profile.xlsx
+++ b/excel/GUI Automated Testing - Edit Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_EP_AP_001" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="76">
   <si>
     <t>Step</t>
   </si>
@@ -249,13 +249,16 @@
   </si>
   <si>
     <t>photopicker</t>
+  </si>
+  <si>
+    <t>(//mat-icon[@class='mat-icon notranslate material-icons mat-icon-no-color'])[5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -311,6 +314,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -360,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -404,6 +413,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1155,8 +1167,8 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1357,8 +1369,8 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
+      <c r="F8" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1380,7 +1392,7 @@
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="10"/>
@@ -1391,35 +1403,38 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="1" t="b">
+        <v>74</v>
+      </c>
+      <c r="I11" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>14</v>
@@ -1439,7 +1454,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>58</v>
@@ -1453,10 +1468,13 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>71</v>
+      </c>
+      <c r="I14" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1464,6 +1482,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1472,10 +1491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1890,10 +1909,21 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="27">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>71</v>
       </c>
     </row>

--- a/excel/GUI Automated Testing - Edit Profile.xlsx
+++ b/excel/GUI Automated Testing - Edit Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_EP_AP_001" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="GUI_EP_AN_004" sheetId="4" r:id="rId4"/>
     <sheet name="GUI_EP_AN_005" sheetId="5" r:id="rId5"/>
     <sheet name="GUI_EP_AN_006" sheetId="6" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="7" r:id="rId7"/>
+    <sheet name="Objects" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="77">
   <si>
     <t>Step</t>
   </si>
@@ -53,9 +55,6 @@
     <t>screenshot</t>
   </si>
   <si>
-    <t>NumericValue</t>
-  </si>
-  <si>
     <t>navigate</t>
   </si>
   <si>
@@ -65,9 +64,6 @@
     <t>https://scrum-metrics.herokuapp.com/start/home</t>
   </si>
   <si>
-    <t>NumericType</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -252,6 +248,15 @@
   </si>
   <si>
     <t>(//mat-icon[@class='mat-icon notranslate material-icons mat-icon-no-color'])[5]</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Value locator</t>
   </si>
 </sst>
 </file>
@@ -636,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -676,22 +681,20 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="12.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -705,17 +708,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -747,17 +750,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -789,19 +792,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -815,19 +818,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -841,17 +844,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -865,19 +868,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -891,17 +894,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -915,17 +918,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -939,19 +942,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -965,19 +968,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -991,19 +994,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1017,16 +1020,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -1037,19 +1040,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -1060,16 +1063,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
@@ -1080,19 +1083,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -1103,16 +1106,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -1123,10 +1126,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I20" s="19" t="b">
         <v>1</v>
@@ -1148,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I21" s="19"/>
     </row>
@@ -1168,7 +1171,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1207,22 +1210,20 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -1236,17 +1237,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="10"/>
@@ -1260,17 +1261,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1284,19 +1285,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1310,19 +1311,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1336,17 +1337,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1360,17 +1361,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1383,17 +1384,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1406,16 +1407,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -1426,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" s="19" t="b">
         <v>1</v>
@@ -1437,16 +1438,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -1457,10 +1458,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -1471,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I14" s="19" t="b">
         <v>1</v>
@@ -1494,7 +1495,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1533,22 +1534,20 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -1562,17 +1561,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="10"/>
@@ -1586,17 +1585,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1610,19 +1609,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1636,19 +1635,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1662,17 +1661,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1686,17 +1685,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1709,17 +1708,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1732,16 +1731,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -1752,19 +1751,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -1775,16 +1774,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -1795,10 +1794,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -1809,17 +1808,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1832,17 +1831,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1855,17 +1854,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1879,16 +1878,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -1899,10 +1898,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -1913,7 +1912,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I19" s="19" t="b">
         <v>1</v>
@@ -1924,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1942,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1982,22 +1981,20 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2011,17 +2008,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="10"/>
@@ -2035,17 +2032,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2059,19 +2056,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2085,19 +2082,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -2111,17 +2108,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2135,17 +2132,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2158,17 +2155,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2181,16 +2178,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -2201,19 +2198,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -2224,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2240,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2282,22 +2279,20 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2311,17 +2306,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="10"/>
@@ -2335,17 +2330,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2359,19 +2354,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2385,19 +2380,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -2411,17 +2406,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2435,17 +2430,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2458,17 +2453,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2481,16 +2476,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -2501,19 +2496,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -2524,16 +2519,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -2544,10 +2539,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -2558,7 +2553,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2572,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2616,22 +2611,20 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2645,17 +2638,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="10"/>
@@ -2669,17 +2662,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2693,19 +2686,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2719,19 +2712,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -2745,17 +2738,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2769,17 +2762,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2792,17 +2785,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2815,16 +2808,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -2835,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2844,4 +2837,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>